--- a/Outliners_price_quarter.xlsx
+++ b/Outliners_price_quarter.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucar\PycharmProjects\NJORD_program_last_Price\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A634ACDA-74B4-4E3A-919B-6D8390C16A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="972" windowWidth="19896" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="200">
   <si>
     <t>2010-Q2</t>
   </si>
@@ -620,22 +614,13 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>2020-Q4</t>
-  </si>
-  <si>
-    <t>2010-Q1</t>
-  </si>
-  <si>
-    <t>2021-Q1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,14 +683,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -752,7 +729,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -784,27 +761,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -836,24 +795,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1029,16 +970,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT158"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AT1" sqref="AT1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1165,17 +1104,8 @@
       <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:43">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -1183,7 +1113,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
@@ -1197,7 +1127,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:43">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
@@ -1211,7 +1141,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:43">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
@@ -1234,7 +1164,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:43">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -1245,7 +1175,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -1262,7 +1192,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -1273,7 +1203,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:43">
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
@@ -1284,7 +1214,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
@@ -1298,7 +1228,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43">
       <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
@@ -1318,7 +1248,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43">
       <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
@@ -1332,7 +1262,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -1361,7 +1291,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
@@ -1378,7 +1308,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43">
       <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
@@ -1386,7 +1316,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -1400,7 +1330,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:43">
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
@@ -1414,7 +1344,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:43">
       <c r="A18" s="1" t="s">
         <v>58</v>
       </c>
@@ -1425,7 +1355,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:43">
       <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
@@ -1433,7 +1363,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:43">
       <c r="A20" s="1" t="s">
         <v>60</v>
       </c>
@@ -1441,7 +1371,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:43">
       <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
@@ -1449,7 +1379,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:43">
       <c r="A22" s="1" t="s">
         <v>62</v>
       </c>
@@ -1457,7 +1387,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:43">
       <c r="A23" s="1" t="s">
         <v>63</v>
       </c>
@@ -1465,7 +1395,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:43">
       <c r="A24" s="1" t="s">
         <v>64</v>
       </c>
@@ -1476,7 +1406,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:43">
       <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
@@ -1484,7 +1414,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:43">
       <c r="A26" s="1" t="s">
         <v>66</v>
       </c>
@@ -1501,7 +1431,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:43">
       <c r="A27" s="1" t="s">
         <v>67</v>
       </c>
@@ -1512,7 +1442,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:43">
       <c r="A28" s="1" t="s">
         <v>68</v>
       </c>
@@ -1535,7 +1465,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:43">
       <c r="A29" s="1" t="s">
         <v>69</v>
       </c>
@@ -1549,7 +1479,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:43">
       <c r="A30" s="1" t="s">
         <v>70</v>
       </c>
@@ -1575,7 +1505,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:43">
       <c r="A31" s="1" t="s">
         <v>71</v>
       </c>
@@ -1589,7 +1519,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:43">
       <c r="A32" s="1" t="s">
         <v>72</v>
       </c>
@@ -1600,7 +1530,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:41">
       <c r="A33" s="1" t="s">
         <v>73</v>
       </c>
@@ -1608,7 +1538,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:41">
       <c r="A34" s="1" t="s">
         <v>74</v>
       </c>
@@ -1628,7 +1558,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:41">
       <c r="A35" s="1" t="s">
         <v>75</v>
       </c>
@@ -1645,7 +1575,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:41">
       <c r="A36" s="1" t="s">
         <v>76</v>
       </c>
@@ -1665,7 +1595,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:41">
       <c r="A37" s="1" t="s">
         <v>77</v>
       </c>
@@ -1676,7 +1606,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:41">
       <c r="A38" s="1" t="s">
         <v>78</v>
       </c>
@@ -1699,7 +1629,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:41">
       <c r="A39" s="1" t="s">
         <v>79</v>
       </c>
@@ -1719,7 +1649,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:41">
       <c r="A40" s="1" t="s">
         <v>80</v>
       </c>
@@ -1727,7 +1657,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:41">
       <c r="A41" s="1" t="s">
         <v>81</v>
       </c>
@@ -1741,7 +1671,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:41">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -1752,7 +1682,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:41">
       <c r="A43" s="1" t="s">
         <v>83</v>
       </c>
@@ -1763,7 +1693,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:41">
       <c r="A44" s="1" t="s">
         <v>84</v>
       </c>
@@ -1777,7 +1707,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:41">
       <c r="A45" s="1" t="s">
         <v>85</v>
       </c>
@@ -1794,7 +1724,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:41">
       <c r="A46" s="1" t="s">
         <v>86</v>
       </c>
@@ -1820,7 +1750,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:41">
       <c r="A47" s="1" t="s">
         <v>87</v>
       </c>
@@ -1837,7 +1767,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:41">
       <c r="A48" s="1" t="s">
         <v>88</v>
       </c>
@@ -1857,7 +1787,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:43">
       <c r="A49" s="1" t="s">
         <v>89</v>
       </c>
@@ -1871,7 +1801,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:43">
       <c r="A50" s="1" t="s">
         <v>90</v>
       </c>
@@ -1903,7 +1833,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:43">
       <c r="A51" s="1" t="s">
         <v>91</v>
       </c>
@@ -1929,7 +1859,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:43">
       <c r="A52" s="1" t="s">
         <v>92</v>
       </c>
@@ -1949,7 +1879,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:43">
       <c r="A53" s="1" t="s">
         <v>93</v>
       </c>
@@ -1969,7 +1899,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:43">
       <c r="A54" s="1" t="s">
         <v>94</v>
       </c>
@@ -1977,7 +1907,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:43">
       <c r="A55" s="1" t="s">
         <v>95</v>
       </c>
@@ -1985,7 +1915,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:43">
       <c r="A56" s="1" t="s">
         <v>96</v>
       </c>
@@ -2008,7 +1938,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:43">
       <c r="A57" s="1" t="s">
         <v>97</v>
       </c>
@@ -2025,7 +1955,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:43">
       <c r="A58" s="1" t="s">
         <v>98</v>
       </c>
@@ -2033,7 +1963,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:43">
       <c r="A59" s="1" t="s">
         <v>99</v>
       </c>
@@ -2047,7 +1977,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:43">
       <c r="A60" s="1" t="s">
         <v>100</v>
       </c>
@@ -2055,7 +1985,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:43">
       <c r="A61" s="1" t="s">
         <v>101</v>
       </c>
@@ -2078,7 +2008,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:43">
       <c r="A62" s="1" t="s">
         <v>102</v>
       </c>
@@ -2104,7 +2034,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:43">
       <c r="A63" s="1" t="s">
         <v>103</v>
       </c>
@@ -2112,7 +2042,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:43">
       <c r="A64" s="1" t="s">
         <v>104</v>
       </c>
@@ -2129,7 +2059,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:43">
       <c r="A65" s="1" t="s">
         <v>105</v>
       </c>
@@ -2140,7 +2070,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="66" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:43">
       <c r="A66" s="1" t="s">
         <v>106</v>
       </c>
@@ -2157,7 +2087,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:43">
       <c r="A67" s="1" t="s">
         <v>107</v>
       </c>
@@ -2168,7 +2098,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="68" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:43">
       <c r="A68" s="1" t="s">
         <v>108</v>
       </c>
@@ -2179,7 +2109,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="69" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:43">
       <c r="A69" s="1" t="s">
         <v>109</v>
       </c>
@@ -2190,7 +2120,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:43">
       <c r="A70" s="1" t="s">
         <v>110</v>
       </c>
@@ -2198,7 +2128,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="71" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:43">
       <c r="A71" s="1" t="s">
         <v>111</v>
       </c>
@@ -2206,7 +2136,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="72" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:43">
       <c r="A72" s="1" t="s">
         <v>112</v>
       </c>
@@ -2217,7 +2147,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="73" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:43">
       <c r="A73" s="1" t="s">
         <v>113</v>
       </c>
@@ -2234,7 +2164,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="74" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:43">
       <c r="A74" s="1" t="s">
         <v>114</v>
       </c>
@@ -2248,7 +2178,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="75" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:43">
       <c r="A75" s="1" t="s">
         <v>115</v>
       </c>
@@ -2262,7 +2192,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="76" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:43">
       <c r="A76" s="1" t="s">
         <v>116</v>
       </c>
@@ -2285,7 +2215,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="77" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:43">
       <c r="A77" s="1" t="s">
         <v>117</v>
       </c>
@@ -2293,7 +2223,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="78" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:43">
       <c r="A78" s="1" t="s">
         <v>118</v>
       </c>
@@ -2319,7 +2249,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="79" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:43">
       <c r="A79" s="1" t="s">
         <v>119</v>
       </c>
@@ -2333,7 +2263,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="80" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:43">
       <c r="A80" s="1" t="s">
         <v>120</v>
       </c>
@@ -2350,7 +2280,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="81" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:43">
       <c r="A81" s="1" t="s">
         <v>121</v>
       </c>
@@ -2364,7 +2294,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="82" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:43">
       <c r="A82" s="1" t="s">
         <v>122</v>
       </c>
@@ -2387,7 +2317,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="83" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:43">
       <c r="A83" s="1" t="s">
         <v>123</v>
       </c>
@@ -2395,7 +2325,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="84" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:43">
       <c r="A84" s="1" t="s">
         <v>124</v>
       </c>
@@ -2406,7 +2336,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="85" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:43">
       <c r="A85" s="1" t="s">
         <v>125</v>
       </c>
@@ -2426,7 +2356,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="86" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:43">
       <c r="A86" s="1" t="s">
         <v>126</v>
       </c>
@@ -2434,7 +2364,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="87" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:43">
       <c r="A87" s="1" t="s">
         <v>127</v>
       </c>
@@ -2451,7 +2381,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="88" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:43">
       <c r="A88" s="1" t="s">
         <v>128</v>
       </c>
@@ -2459,7 +2389,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="89" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:43">
       <c r="A89" s="1" t="s">
         <v>129</v>
       </c>
@@ -2479,7 +2409,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="90" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:43">
       <c r="A90" s="1" t="s">
         <v>130</v>
       </c>
@@ -2490,7 +2420,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="91" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:43">
       <c r="A91" s="1" t="s">
         <v>131</v>
       </c>
@@ -2510,7 +2440,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="92" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:43">
       <c r="A92" s="1" t="s">
         <v>132</v>
       </c>
@@ -2524,7 +2454,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="93" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:43">
       <c r="A93" s="1" t="s">
         <v>133</v>
       </c>
@@ -2547,7 +2477,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="94" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:43">
       <c r="A94" s="1" t="s">
         <v>134</v>
       </c>
@@ -2555,7 +2485,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="95" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:43">
       <c r="A95" s="1" t="s">
         <v>135</v>
       </c>
@@ -2572,7 +2502,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="96" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:43">
       <c r="A96" s="1" t="s">
         <v>136</v>
       </c>
@@ -2598,7 +2528,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="97" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:43">
       <c r="A97" s="1" t="s">
         <v>137</v>
       </c>
@@ -2624,7 +2554,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="98" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:43">
       <c r="A98" s="1" t="s">
         <v>138</v>
       </c>
@@ -2635,7 +2565,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="99" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:43">
       <c r="A99" s="1" t="s">
         <v>139</v>
       </c>
@@ -2643,7 +2573,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="100" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:43">
       <c r="A100" s="1" t="s">
         <v>140</v>
       </c>
@@ -2654,7 +2584,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:43">
       <c r="A101" s="1" t="s">
         <v>141</v>
       </c>
@@ -2671,7 +2601,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="102" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:43">
       <c r="A102" s="1" t="s">
         <v>142</v>
       </c>
@@ -2688,7 +2618,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="103" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:43">
       <c r="A103" s="1" t="s">
         <v>143</v>
       </c>
@@ -2708,7 +2638,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="104" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:43">
       <c r="A104" s="1" t="s">
         <v>144</v>
       </c>
@@ -2725,7 +2655,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="105" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:43">
       <c r="A105" s="1" t="s">
         <v>145</v>
       </c>
@@ -2733,7 +2663,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="106" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:43">
       <c r="A106" s="1" t="s">
         <v>146</v>
       </c>
@@ -2744,7 +2674,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="107" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:43">
       <c r="A107" s="1" t="s">
         <v>147</v>
       </c>
@@ -2755,7 +2685,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="108" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:43">
       <c r="A108" s="1" t="s">
         <v>148</v>
       </c>
@@ -2763,7 +2693,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="109" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:43">
       <c r="A109" s="1" t="s">
         <v>149</v>
       </c>
@@ -2774,7 +2704,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="110" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:43">
       <c r="A110" s="1" t="s">
         <v>150</v>
       </c>
@@ -2785,7 +2715,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="111" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:43">
       <c r="A111" s="1" t="s">
         <v>151</v>
       </c>
@@ -2796,7 +2726,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="112" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:43">
       <c r="A112" s="1" t="s">
         <v>152</v>
       </c>
@@ -2816,7 +2746,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="113" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:43">
       <c r="A113" s="1" t="s">
         <v>153</v>
       </c>
@@ -2824,7 +2754,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="114" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:43">
       <c r="A114" s="1" t="s">
         <v>154</v>
       </c>
@@ -2832,7 +2762,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="115" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:43">
       <c r="A115" s="1" t="s">
         <v>155</v>
       </c>
@@ -2858,7 +2788,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="116" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:43">
       <c r="A116" s="1" t="s">
         <v>156</v>
       </c>
@@ -2878,7 +2808,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="117" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:43">
       <c r="A117" s="1" t="s">
         <v>157</v>
       </c>
@@ -2892,7 +2822,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="118" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:43">
       <c r="A118" s="1" t="s">
         <v>158</v>
       </c>
@@ -2906,7 +2836,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="119" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:43">
       <c r="A119" s="1" t="s">
         <v>159</v>
       </c>
@@ -2917,7 +2847,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="120" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:43">
       <c r="A120" s="1" t="s">
         <v>160</v>
       </c>
@@ -2928,7 +2858,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="121" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:43">
       <c r="A121" s="1" t="s">
         <v>161</v>
       </c>
@@ -2954,7 +2884,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="122" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:43">
       <c r="A122" s="1" t="s">
         <v>162</v>
       </c>
@@ -2983,7 +2913,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="123" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:43">
       <c r="A123" s="1" t="s">
         <v>163</v>
       </c>
@@ -3024,7 +2954,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="124" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:43">
       <c r="A124" s="1" t="s">
         <v>164</v>
       </c>
@@ -3047,7 +2977,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="125" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:43">
       <c r="A125" s="1" t="s">
         <v>165</v>
       </c>
@@ -3067,7 +2997,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="126" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:43">
       <c r="A126" s="1" t="s">
         <v>166</v>
       </c>
@@ -3075,7 +3005,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="127" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:43">
       <c r="A127" s="1" t="s">
         <v>167</v>
       </c>
@@ -3095,7 +3025,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="128" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:43">
       <c r="A128" s="1" t="s">
         <v>168</v>
       </c>
@@ -3106,7 +3036,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="129" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:43">
       <c r="A129" s="1" t="s">
         <v>169</v>
       </c>
@@ -3120,7 +3050,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="130" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:43">
       <c r="A130" s="1" t="s">
         <v>170</v>
       </c>
@@ -3143,7 +3073,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="131" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:43">
       <c r="A131" s="1" t="s">
         <v>171</v>
       </c>
@@ -3151,7 +3081,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="132" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:43">
       <c r="A132" s="1" t="s">
         <v>172</v>
       </c>
@@ -3171,7 +3101,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="133" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:43">
       <c r="A133" s="1" t="s">
         <v>173</v>
       </c>
@@ -3191,7 +3121,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="134" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:43">
       <c r="A134" s="1" t="s">
         <v>174</v>
       </c>
@@ -3202,7 +3132,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="135" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:43">
       <c r="A135" s="1" t="s">
         <v>175</v>
       </c>
@@ -3210,7 +3140,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="136" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:43">
       <c r="A136" s="1" t="s">
         <v>176</v>
       </c>
@@ -3227,7 +3157,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="137" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:43">
       <c r="A137" s="1" t="s">
         <v>177</v>
       </c>
@@ -3235,7 +3165,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="138" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:43">
       <c r="A138" s="1" t="s">
         <v>178</v>
       </c>
@@ -3255,7 +3185,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="139" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:43">
       <c r="A139" s="1" t="s">
         <v>179</v>
       </c>
@@ -3281,7 +3211,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="140" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:43">
       <c r="A140" s="1" t="s">
         <v>180</v>
       </c>
@@ -3298,7 +3228,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="141" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:43">
       <c r="A141" s="1" t="s">
         <v>181</v>
       </c>
@@ -3318,7 +3248,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="142" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:43">
       <c r="A142" s="1" t="s">
         <v>182</v>
       </c>
@@ -3332,7 +3262,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="143" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:43">
       <c r="A143" s="1" t="s">
         <v>183</v>
       </c>
@@ -3361,7 +3291,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="144" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:43">
       <c r="A144" s="1" t="s">
         <v>184</v>
       </c>
@@ -3390,7 +3320,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="145" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:42">
       <c r="A145" s="1" t="s">
         <v>185</v>
       </c>
@@ -3410,7 +3340,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="146" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:42">
       <c r="A146" s="1" t="s">
         <v>186</v>
       </c>
@@ -3418,7 +3348,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="147" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:42">
       <c r="A147" s="1" t="s">
         <v>187</v>
       </c>
@@ -3444,7 +3374,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="148" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:42">
       <c r="A148" s="1" t="s">
         <v>188</v>
       </c>
@@ -3455,7 +3385,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="149" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:42">
       <c r="A149" s="1" t="s">
         <v>189</v>
       </c>
@@ -3463,7 +3393,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="150" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:42">
       <c r="A150" s="1" t="s">
         <v>190</v>
       </c>
@@ -3474,7 +3404,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="151" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:42">
       <c r="A151" s="1" t="s">
         <v>191</v>
       </c>
@@ -3491,7 +3421,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="152" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:42">
       <c r="A152" s="1" t="s">
         <v>192</v>
       </c>
@@ -3502,7 +3432,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="153" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:42">
       <c r="A153" s="1" t="s">
         <v>193</v>
       </c>
@@ -3531,7 +3461,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="154" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:42">
       <c r="A154" s="1" t="s">
         <v>194</v>
       </c>
@@ -3554,7 +3484,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="155" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:42">
       <c r="A155" s="1" t="s">
         <v>195</v>
       </c>
@@ -3562,7 +3492,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="156" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:42">
       <c r="A156" s="1" t="s">
         <v>196</v>
       </c>
@@ -3573,7 +3503,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="157" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:42">
       <c r="A157" s="1" t="s">
         <v>197</v>
       </c>
@@ -3584,7 +3514,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="158" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:42">
       <c r="A158" s="1" t="s">
         <v>198</v>
       </c>
